--- a/binaries/FCfiles/FCFile_Ph2.xlsx
+++ b/binaries/FCfiles/FCFile_Ph2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
   <si>
     <t>shipmentType</t>
   </si>
@@ -248,6 +248,18 @@
   </si>
   <si>
     <t>51471625</t>
+  </si>
+  <si>
+    <t>51472474</t>
+  </si>
+  <si>
+    <t>51472477</t>
+  </si>
+  <si>
+    <t>51472480</t>
+  </si>
+  <si>
+    <t>51472483</t>
   </si>
 </sst>
 </file>
@@ -355,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="68">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -378,6 +390,25 @@
     <xf applyBorder="1" applyFill="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -795,7 +826,7 @@
       <c r="H2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="52" t="s">
         <v>60</v>
       </c>
     </row>
@@ -842,7 +873,7 @@
       <c r="P3" s="6">
         <v>1</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="55" t="s">
         <v>60</v>
       </c>
     </row>
@@ -892,7 +923,7 @@
       <c r="P4" s="6">
         <v>1</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="Q4" s="58" t="s">
         <v>60</v>
       </c>
     </row>
@@ -945,7 +976,7 @@
       <c r="P5" s="6">
         <v>1</v>
       </c>
-      <c r="Q5" s="41" t="s">
+      <c r="Q5" s="61" t="s">
         <v>60</v>
       </c>
     </row>
@@ -995,7 +1026,7 @@
       <c r="P6" s="6">
         <v>2</v>
       </c>
-      <c r="Q6" s="44" t="s">
+      <c r="Q6" s="67" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1026,7 +1057,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="Q7" s="48" t="s">
+      <c r="Q7" s="65" t="s">
         <v>60</v>
       </c>
     </row>

--- a/binaries/FCfiles/FCFile_Ph2.xlsx
+++ b/binaries/FCfiles/FCFile_Ph2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="73">
   <si>
     <t>shipmentType</t>
   </si>
@@ -367,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -390,6 +390,9 @@
     <xf applyBorder="1" applyFill="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -826,7 +829,7 @@
       <c r="H2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="52" t="s">
+      <c r="Q2" s="68" t="s">
         <v>60</v>
       </c>
     </row>
@@ -873,7 +876,7 @@
       <c r="P3" s="6">
         <v>1</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="69" t="s">
         <v>60</v>
       </c>
     </row>
@@ -923,7 +926,7 @@
       <c r="P4" s="6">
         <v>1</v>
       </c>
-      <c r="Q4" s="58" t="s">
+      <c r="Q4" s="70" t="s">
         <v>60</v>
       </c>
     </row>

--- a/binaries/FCfiles/FCFile_Ph2.xlsx
+++ b/binaries/FCfiles/FCFile_Ph2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="88">
   <si>
     <t>shipmentType</t>
   </si>
@@ -260,6 +260,51 @@
   </si>
   <si>
     <t>51472483</t>
+  </si>
+  <si>
+    <t>51475608</t>
+  </si>
+  <si>
+    <t>51475611</t>
+  </si>
+  <si>
+    <t>51475614</t>
+  </si>
+  <si>
+    <t>51475617</t>
+  </si>
+  <si>
+    <t>51475620</t>
+  </si>
+  <si>
+    <t>51475623</t>
+  </si>
+  <si>
+    <t>51475724</t>
+  </si>
+  <si>
+    <t>51475727</t>
+  </si>
+  <si>
+    <t>51475730</t>
+  </si>
+  <si>
+    <t>51475735</t>
+  </si>
+  <si>
+    <t>51475877</t>
+  </si>
+  <si>
+    <t>51475880</t>
+  </si>
+  <si>
+    <t>51475883</t>
+  </si>
+  <si>
+    <t>51475887</t>
+  </si>
+  <si>
+    <t>51475934</t>
   </si>
 </sst>
 </file>
@@ -367,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="132">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -390,6 +435,67 @@
     <xf applyBorder="1" applyFill="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -829,7 +935,7 @@
       <c r="H2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="68" t="s">
+      <c r="Q2" s="118" t="s">
         <v>60</v>
       </c>
     </row>
@@ -876,7 +982,7 @@
       <c r="P3" s="6">
         <v>1</v>
       </c>
-      <c r="Q3" s="69" t="s">
+      <c r="Q3" s="121" t="s">
         <v>60</v>
       </c>
     </row>
@@ -926,7 +1032,7 @@
       <c r="P4" s="6">
         <v>1</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="124" t="s">
         <v>60</v>
       </c>
     </row>
@@ -979,7 +1085,7 @@
       <c r="P5" s="6">
         <v>1</v>
       </c>
-      <c r="Q5" s="61" t="s">
+      <c r="Q5" s="127" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1029,8 +1135,8 @@
       <c r="P6" s="6">
         <v>2</v>
       </c>
-      <c r="Q6" s="67" t="s">
-        <v>60</v>
+      <c r="Q6" s="131" t="s">
+        <v>87</v>
       </c>
     </row>
     <row customFormat="1" r="7" s="6" spans="1:17">
@@ -1060,7 +1166,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="Q7" s="65" t="s">
+      <c r="Q7" s="129" t="s">
         <v>60</v>
       </c>
     </row>

--- a/binaries/FCfiles/FCFile_Ph2.xlsx
+++ b/binaries/FCfiles/FCFile_Ph2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="62">
   <si>
     <t>shipmentType</t>
   </si>
@@ -224,84 +224,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>51471599</t>
-  </si>
-  <si>
-    <t>51471602</t>
-  </si>
-  <si>
-    <t>51471605</t>
-  </si>
-  <si>
-    <t>51471613</t>
-  </si>
-  <si>
-    <t>51471616</t>
-  </si>
-  <si>
-    <t>51471619</t>
-  </si>
-  <si>
-    <t>51471622</t>
-  </si>
-  <si>
-    <t>51471625</t>
-  </si>
-  <si>
-    <t>51472474</t>
-  </si>
-  <si>
-    <t>51472477</t>
-  </si>
-  <si>
-    <t>51472480</t>
-  </si>
-  <si>
-    <t>51472483</t>
-  </si>
-  <si>
-    <t>51475608</t>
-  </si>
-  <si>
-    <t>51475611</t>
-  </si>
-  <si>
-    <t>51475614</t>
-  </si>
-  <si>
-    <t>51475617</t>
-  </si>
-  <si>
-    <t>51475620</t>
-  </si>
-  <si>
-    <t>51475623</t>
-  </si>
-  <si>
-    <t>51475724</t>
-  </si>
-  <si>
-    <t>51475727</t>
-  </si>
-  <si>
-    <t>51475730</t>
-  </si>
-  <si>
-    <t>51475735</t>
-  </si>
-  <si>
-    <t>51475877</t>
-  </si>
-  <si>
-    <t>51475880</t>
-  </si>
-  <si>
-    <t>51475883</t>
-  </si>
-  <si>
-    <t>51475887</t>
   </si>
   <si>
     <t>51475934</t>
@@ -412,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -435,117 +357,6 @@
     <xf applyBorder="1" applyFill="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
@@ -832,7 +643,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -853,7 +664,7 @@
     <col min="14" max="14" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
     <col min="15" max="15" customWidth="true" style="4" width="8.42578125" collapsed="true"/>
     <col min="16" max="16" style="4" width="9.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="4" width="7.98828125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="4" width="9.95703125" collapsed="true"/>
     <col min="18" max="16384" style="4" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -935,7 +746,7 @@
       <c r="H2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="118" t="s">
+      <c r="Q2" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -982,7 +793,7 @@
       <c r="P3" s="6">
         <v>1</v>
       </c>
-      <c r="Q3" s="121" t="s">
+      <c r="Q3" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1032,7 +843,7 @@
       <c r="P4" s="6">
         <v>1</v>
       </c>
-      <c r="Q4" s="124" t="s">
+      <c r="Q4" s="20" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1085,7 +896,7 @@
       <c r="P5" s="6">
         <v>1</v>
       </c>
-      <c r="Q5" s="127" t="s">
+      <c r="Q5" s="19" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1135,8 +946,8 @@
       <c r="P6" s="6">
         <v>2</v>
       </c>
-      <c r="Q6" s="131" t="s">
-        <v>87</v>
+      <c r="Q6" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row customFormat="1" r="7" s="6" spans="1:17">
@@ -1166,7 +977,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="Q7" s="129" t="s">
+      <c r="Q7" s="16" t="s">
         <v>60</v>
       </c>
     </row>
